--- a/data/tableMain.xlsx
+++ b/data/tableMain.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F8E1E9-B8DD-478E-98E8-67E7A161758C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94359244-0950-409A-8B81-48057481154F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="263">
   <si>
     <t>formats</t>
   </si>
@@ -46,48 +46,6 @@
     <t>на папері</t>
   </si>
   <si>
-    <t>ОФІСНИЙ ПАПІР (80-90ᵍ׀ᵐ²)</t>
-  </si>
-  <si>
-    <t>MUNKEN (80-100ᵍ׀ᵐ²)</t>
-  </si>
-  <si>
-    <t>DNS ПАПІР (160ᵍ׀ᵐ²)</t>
-  </si>
-  <si>
-    <t>!DNS 200ᵍ׀ᵐ²</t>
-  </si>
-  <si>
-    <t>!DNS 300ᵍ׀ᵐ²</t>
-  </si>
-  <si>
-    <t>DNS КАРТОН (400ᵍ׀ᵐ²)</t>
-  </si>
-  <si>
-    <t>ДИЗАЙНЕРСЬКИЙ КАРТОН (300ᵍ׀ᵐ²)</t>
-  </si>
-  <si>
-    <t>ДИЗАЙНЕРСЬКИЙ ПАПІР (120ᵍ׀ᵐ²)</t>
-  </si>
-  <si>
-    <t>КРЕЙДОВАНИЙ ПАПІР (120-170ᵍ׀ᵐ²)</t>
-  </si>
-  <si>
-    <t>!UPM 200ᵍ׀ᵐ²</t>
-  </si>
-  <si>
-    <t>!UPM 250ᵍ׀ᵐ²</t>
-  </si>
-  <si>
-    <t>КРЕЙДОВАНИЙ КАРТОН (300-350ᵍ׀ᵐ²)</t>
-  </si>
-  <si>
-    <t>!UPM 350ᵍ׀ᵐ²</t>
-  </si>
-  <si>
-    <t>!BIO_TOP_3 300ᵍ׀ᵐ²</t>
-  </si>
-  <si>
     <t>на самоклейці</t>
   </si>
   <si>
@@ -181,12 +139,6 @@
     <t>без обкладинки</t>
   </si>
   <si>
-    <t>з обкладинкою на папері DNS КАРТОН (400ᵍ׀ᵐ²)</t>
-  </si>
-  <si>
-    <t>з обкладинкою на папері UPM 350ᵍ׀ᵐ²</t>
-  </si>
-  <si>
     <t>лицьова підкладка</t>
   </si>
   <si>
@@ -328,24 +280,6 @@
     <t>ЧБ друк A4 односторонній</t>
   </si>
   <si>
-    <t>DNS 200ᵍ׀ᵐ²</t>
-  </si>
-  <si>
-    <t>DNS 300ᵍ׀ᵐ²</t>
-  </si>
-  <si>
-    <t>UPM 200ᵍ׀ᵐ²</t>
-  </si>
-  <si>
-    <t>UPM 250ᵍ׀ᵐ²</t>
-  </si>
-  <si>
-    <t>UPM 350ᵍ׀ᵐ²</t>
-  </si>
-  <si>
-    <t>BIO_TOP_3 300ᵍ׀ᵐ²</t>
-  </si>
-  <si>
     <t>плівці глянцевій Premium</t>
   </si>
   <si>
@@ -818,6 +752,63 @@
   </si>
   <si>
     <t>Доп Друк на молочному акрилі</t>
+  </si>
+  <si>
+    <t>ОФІСНИЙ ПАПІР (80-90GSM)</t>
+  </si>
+  <si>
+    <t>MUNKEN PURE (80-100GSM)</t>
+  </si>
+  <si>
+    <t>КРЕЙДОВАНИЙ ПАПІР (120GSM)</t>
+  </si>
+  <si>
+    <t>DNS КАРТОН (400GSM)</t>
+  </si>
+  <si>
+    <t>ДИЗАЙНЕРСЬКИЙ ПАПІР (120GSM)</t>
+  </si>
+  <si>
+    <t>ДИЗАЙНЕРСЬКИЙ КАРТОН (300GSM)</t>
+  </si>
+  <si>
+    <t>!UPM 250gsm</t>
+  </si>
+  <si>
+    <t>!UPM 350gsm</t>
+  </si>
+  <si>
+    <t>!BIO_TOP_3 300gsm</t>
+  </si>
+  <si>
+    <t>з обкладинкою на картоні DNS 400GSM</t>
+  </si>
+  <si>
+    <t>з обкладинкою на крейдованому картоні 350gsm</t>
+  </si>
+  <si>
+    <t>DNS ПАПІР (160GSM)</t>
+  </si>
+  <si>
+    <t>DNS 200gsm</t>
+  </si>
+  <si>
+    <t>DNS 300gsm</t>
+  </si>
+  <si>
+    <t>UPM 200gsm</t>
+  </si>
+  <si>
+    <t>UPM 250gsm</t>
+  </si>
+  <si>
+    <t>UPM 350gsm</t>
+  </si>
+  <si>
+    <t>BIO_TOP_3 300gsm</t>
+  </si>
+  <si>
+    <t>КРЕЙДОВАНИЙ КАРТОН (300GSM)</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1346,7 @@
   <dimension ref="A1:H573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1419,7 +1410,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="3">
@@ -1435,7 +1426,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3">
@@ -1451,7 +1442,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3">
@@ -1467,7 +1458,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="3">
@@ -1483,7 +1474,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="3">
@@ -1515,7 +1506,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="3">
@@ -1531,7 +1522,7 @@
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3">
@@ -1547,7 +1538,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3">
@@ -1585,7 +1576,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1609,7 +1600,7 @@
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1621,7 +1612,7 @@
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1655,7 +1646,7 @@
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="5"/>
@@ -1667,7 +1658,7 @@
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1679,7 +1670,7 @@
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1691,7 +1682,7 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1703,7 +1694,7 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1715,7 +1706,7 @@
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1727,7 +1718,7 @@
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1739,7 +1730,7 @@
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1751,7 +1742,7 @@
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1763,7 +1754,7 @@
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1775,7 +1766,7 @@
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1787,7 +1778,7 @@
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1799,7 +1790,7 @@
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1811,7 +1802,7 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1833,7 +1824,7 @@
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1">
       <c r="A37" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1845,7 +1836,7 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1857,7 +1848,7 @@
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1869,7 +1860,7 @@
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1881,7 +1872,7 @@
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1893,7 +1884,7 @@
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1905,7 +1896,7 @@
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1927,7 +1918,7 @@
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1939,7 +1930,7 @@
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1961,7 +1952,7 @@
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1973,7 +1964,7 @@
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1985,7 +1976,7 @@
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1997,7 +1988,7 @@
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1">
       <c r="A51" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2009,7 +2000,7 @@
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1">
       <c r="A52" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2031,7 +2022,7 @@
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2043,7 +2034,7 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1">
       <c r="A55" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2055,7 +2046,7 @@
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2067,7 +2058,7 @@
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2079,7 +2070,7 @@
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2091,7 +2082,7 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2113,7 +2104,7 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1">
       <c r="A61" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2125,7 +2116,7 @@
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1">
       <c r="A62" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2137,7 +2128,7 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1">
       <c r="A63" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2159,7 +2150,7 @@
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1">
       <c r="A65" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2171,7 +2162,7 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1">
       <c r="A66" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2183,7 +2174,7 @@
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1">
       <c r="A67" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2195,7 +2186,7 @@
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1">
       <c r="A68" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2207,7 +2198,7 @@
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1">
       <c r="A69" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2219,7 +2210,7 @@
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1">
       <c r="A70" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2241,7 +2232,7 @@
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1">
       <c r="A72" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2253,7 +2244,7 @@
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1">
       <c r="A73" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2275,7 +2266,7 @@
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1">
       <c r="A75" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2287,7 +2278,7 @@
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1">
       <c r="A76" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2309,7 +2300,7 @@
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1">
       <c r="A78" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2321,7 +2312,7 @@
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1">
       <c r="A79" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
@@ -2335,7 +2326,7 @@
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1">
       <c r="A80" s="1" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="B80" s="3">
         <v>30</v>
@@ -2349,7 +2340,7 @@
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1">
       <c r="A81" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="B81" s="3">
         <v>15</v>
@@ -2373,7 +2364,7 @@
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1">
       <c r="A83" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2385,7 +2376,7 @@
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1">
       <c r="A84" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2397,7 +2388,7 @@
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1">
       <c r="A85" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2419,7 +2410,7 @@
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1">
       <c r="A87" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2431,7 +2422,7 @@
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1">
       <c r="A88" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2443,7 +2434,7 @@
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1">
       <c r="A89" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2455,7 +2446,7 @@
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1">
       <c r="A90" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2467,7 +2458,7 @@
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1">
       <c r="A91" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2479,7 +2470,7 @@
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1">
       <c r="A92" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2491,7 +2482,7 @@
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1">
       <c r="A93" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2503,7 +2494,7 @@
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1">
       <c r="A94" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2515,7 +2506,7 @@
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1">
       <c r="A95" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2537,7 +2528,7 @@
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1">
       <c r="A97" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2549,7 +2540,7 @@
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1">
       <c r="A98" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2561,7 +2552,7 @@
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1">
       <c r="A99" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
@@ -2583,7 +2574,7 @@
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1">
       <c r="A100" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B100" s="3">
         <v>2</v>
@@ -2605,7 +2596,7 @@
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1">
       <c r="A101" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B101" s="3">
         <v>3</v>
@@ -2637,7 +2628,7 @@
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1">
       <c r="A103" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2649,7 +2640,7 @@
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1">
       <c r="A104" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2661,7 +2652,7 @@
     </row>
     <row r="105" spans="1:8" ht="15" thickBot="1">
       <c r="A105" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
@@ -2683,7 +2674,7 @@
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1">
       <c r="A106" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
@@ -2705,7 +2696,7 @@
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1">
       <c r="A107" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B107" s="3">
         <v>3</v>
@@ -2737,7 +2728,7 @@
     </row>
     <row r="109" spans="1:8" ht="15" thickBot="1">
       <c r="A109" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2749,7 +2740,7 @@
     </row>
     <row r="110" spans="1:8" ht="15" thickBot="1">
       <c r="A110" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2761,7 +2752,7 @@
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1">
       <c r="A111" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B111" s="3">
         <v>0.5</v>
@@ -2783,7 +2774,7 @@
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1">
       <c r="A112" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B112" s="3">
         <v>1</v>
@@ -2805,7 +2796,7 @@
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1">
       <c r="A113" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B113" s="3">
         <v>1.5</v>
@@ -2827,7 +2818,7 @@
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1">
       <c r="A114" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B114" s="3">
         <v>2</v>
@@ -2859,7 +2850,7 @@
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1">
       <c r="A116" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2871,7 +2862,7 @@
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1">
       <c r="A117" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B117" s="3">
         <v>0</v>
@@ -2885,7 +2876,7 @@
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1">
       <c r="A118" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B118" s="3">
         <v>20</v>
@@ -2899,7 +2890,7 @@
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1">
       <c r="A119" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B119" s="3">
         <v>50</v>
@@ -2913,7 +2904,7 @@
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1">
       <c r="A120" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B120" s="3">
         <v>20</v>
@@ -2927,7 +2918,7 @@
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1">
       <c r="A121" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B121" s="3">
         <v>20</v>
@@ -2941,7 +2932,7 @@
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1">
       <c r="A122" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B122" s="3">
         <v>20</v>
@@ -2965,7 +2956,7 @@
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1">
       <c r="A124" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2977,7 +2968,7 @@
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1">
       <c r="A125" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2989,7 +2980,7 @@
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1">
       <c r="A126" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3001,7 +2992,7 @@
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1">
       <c r="A127" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3013,7 +3004,7 @@
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1">
       <c r="A128" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3025,7 +3016,7 @@
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1">
       <c r="A129" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3037,7 +3028,7 @@
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1">
       <c r="A130" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3049,7 +3040,7 @@
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1">
       <c r="A131" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3061,7 +3052,7 @@
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1">
       <c r="A132" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3073,7 +3064,7 @@
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1">
       <c r="A133" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3095,7 +3086,7 @@
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1">
       <c r="A135" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3107,7 +3098,7 @@
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1">
       <c r="A136" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3119,7 +3110,7 @@
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1">
       <c r="A137" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3163,7 +3154,7 @@
     </row>
     <row r="141" spans="1:8" ht="15" thickBot="1">
       <c r="A141" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3175,7 +3166,7 @@
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1">
       <c r="A142" s="1" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="B142" s="3">
         <v>3</v>
@@ -3197,7 +3188,7 @@
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1">
       <c r="A143" s="1" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="B143" s="3">
         <v>22</v>
@@ -3219,7 +3210,7 @@
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1">
       <c r="A144" s="1" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="B144" s="3">
         <v>22</v>
@@ -3241,7 +3232,7 @@
     </row>
     <row r="145" spans="1:8" ht="15" thickBot="1">
       <c r="A145" s="1" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B145" s="3">
         <v>22</v>
@@ -3263,7 +3254,7 @@
     </row>
     <row r="146" spans="1:8" ht="15" thickBot="1">
       <c r="A146" s="1" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="B146" s="3">
         <v>30</v>
@@ -3285,7 +3276,7 @@
     </row>
     <row r="147" spans="1:8" ht="15" thickBot="1">
       <c r="A147" s="1" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="B147" s="3">
         <v>30</v>
@@ -3307,7 +3298,7 @@
     </row>
     <row r="148" spans="1:8" ht="15" thickBot="1">
       <c r="A148" s="1" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="B148" s="3">
         <v>40</v>
@@ -3329,7 +3320,7 @@
     </row>
     <row r="149" spans="1:8" ht="15" thickBot="1">
       <c r="A149" s="1" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="B149" s="3">
         <v>20</v>
@@ -3351,7 +3342,7 @@
     </row>
     <row r="150" spans="1:8" ht="15" thickBot="1">
       <c r="A150" s="1" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="B150" s="3">
         <v>20</v>
@@ -3373,7 +3364,7 @@
     </row>
     <row r="151" spans="1:8" ht="15" thickBot="1">
       <c r="A151" s="1" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="B151" s="3">
         <v>20</v>
@@ -3395,7 +3386,7 @@
     </row>
     <row r="152" spans="1:8" ht="15" thickBot="1">
       <c r="A152" s="1" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B152" s="3">
         <v>25</v>
@@ -3417,7 +3408,7 @@
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1">
       <c r="A153" s="1" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="B153" s="3">
         <v>25</v>
@@ -3439,7 +3430,7 @@
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1">
       <c r="A154" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="B154" s="3">
         <v>25</v>
@@ -3461,7 +3452,7 @@
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1">
       <c r="A155" s="1" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="B155" s="3">
         <v>25</v>
@@ -3483,7 +3474,7 @@
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1">
       <c r="A156" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B156" s="3">
         <v>25</v>
@@ -3505,7 +3496,7 @@
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1">
       <c r="A157" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B157" s="3">
         <v>40</v>
@@ -3527,7 +3518,7 @@
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1">
       <c r="A158" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B158" s="3">
         <v>40</v>
@@ -3549,7 +3540,7 @@
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1">
       <c r="A159" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B159" s="3">
         <v>50</v>
@@ -3571,7 +3562,7 @@
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1">
       <c r="A160" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B160" s="3">
         <v>50</v>
@@ -3593,7 +3584,7 @@
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1">
       <c r="A161" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B161" s="3">
         <v>50</v>
@@ -3615,7 +3606,7 @@
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1">
       <c r="A162" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B162" s="3">
         <v>25</v>
@@ -3647,7 +3638,7 @@
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1">
       <c r="A164" s="4" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3659,7 +3650,7 @@
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1">
       <c r="A165" s="1" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="B165" s="3">
         <v>6</v>
@@ -3681,7 +3672,7 @@
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1">
       <c r="A166" s="1" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="B166" s="3">
         <v>44</v>
@@ -3703,7 +3694,7 @@
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1">
       <c r="A167" s="1" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="B167" s="3">
         <v>44</v>
@@ -3725,7 +3716,7 @@
     </row>
     <row r="168" spans="1:8" ht="15" thickBot="1">
       <c r="A168" s="1" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B168" s="3">
         <v>44</v>
@@ -3747,7 +3738,7 @@
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1">
       <c r="A169" s="1" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="B169" s="3">
         <v>60</v>
@@ -3769,7 +3760,7 @@
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1">
       <c r="A170" s="1" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="B170" s="3">
         <v>60</v>
@@ -3791,7 +3782,7 @@
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1">
       <c r="A171" s="1" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="B171" s="3">
         <v>80</v>
@@ -3813,7 +3804,7 @@
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1">
       <c r="A172" s="1" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="B172" s="3">
         <v>40</v>
@@ -3835,7 +3826,7 @@
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1">
       <c r="A173" s="1" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="B173" s="3">
         <v>40</v>
@@ -3857,7 +3848,7 @@
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1">
       <c r="A174" s="1" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="B174" s="3">
         <v>40</v>
@@ -3879,7 +3870,7 @@
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1">
       <c r="A175" s="1" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B175" s="3">
         <v>50</v>
@@ -3901,7 +3892,7 @@
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1">
       <c r="A176" s="1" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="B176" s="3">
         <v>50</v>
@@ -3923,7 +3914,7 @@
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1">
       <c r="A177" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="B177" s="3">
         <v>50</v>
@@ -3945,7 +3936,7 @@
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1">
       <c r="A178" s="1" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="B178" s="3">
         <v>50</v>
@@ -3967,7 +3958,7 @@
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1">
       <c r="A179" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B179" s="3">
         <v>50</v>
@@ -3989,7 +3980,7 @@
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1">
       <c r="A180" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B180" s="3">
         <v>80</v>
@@ -4011,7 +4002,7 @@
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1">
       <c r="A181" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B181" s="3">
         <v>80</v>
@@ -4033,7 +4024,7 @@
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1">
       <c r="A182" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B182" s="3">
         <v>100</v>
@@ -4055,7 +4046,7 @@
     </row>
     <row r="183" spans="1:8" ht="15" thickBot="1">
       <c r="A183" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B183" s="3">
         <v>100</v>
@@ -4077,7 +4068,7 @@
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1">
       <c r="A184" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B184" s="3">
         <v>100</v>
@@ -4099,7 +4090,7 @@
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1">
       <c r="A185" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B185" s="3">
         <v>50</v>
@@ -4131,19 +4122,19 @@
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1">
       <c r="A187" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C187" s="6">
         <v>18568</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -4151,7 +4142,7 @@
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1">
       <c r="A188" s="1" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="B188" s="3">
         <v>6</v>
@@ -4173,7 +4164,7 @@
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1">
       <c r="A189" s="1" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="B189" s="3">
         <v>37</v>
@@ -4195,7 +4186,7 @@
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1">
       <c r="A190" s="1" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="B190" s="3">
         <v>37</v>
@@ -4217,7 +4208,7 @@
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1">
       <c r="A191" s="1" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B191" s="3">
         <v>37</v>
@@ -4239,7 +4230,7 @@
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1">
       <c r="A192" s="1" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="B192" s="3">
         <v>45</v>
@@ -4261,7 +4252,7 @@
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1">
       <c r="A193" s="1" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="B193" s="3">
         <v>45</v>
@@ -4283,7 +4274,7 @@
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1">
       <c r="A194" s="1" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="B194" s="3">
         <v>55</v>
@@ -4305,7 +4296,7 @@
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1">
       <c r="A195" s="1" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="B195" s="3">
         <v>35</v>
@@ -4327,7 +4318,7 @@
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1">
       <c r="A196" s="1" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="B196" s="3">
         <v>35</v>
@@ -4349,7 +4340,7 @@
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1">
       <c r="A197" s="1" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="B197" s="3">
         <v>35</v>
@@ -4371,7 +4362,7 @@
     </row>
     <row r="198" spans="1:8" ht="15" thickBot="1">
       <c r="A198" s="1" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B198" s="3">
         <v>40</v>
@@ -4393,7 +4384,7 @@
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1">
       <c r="A199" s="1" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="B199" s="3">
         <v>40</v>
@@ -4415,7 +4406,7 @@
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1">
       <c r="A200" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="B200" s="3">
         <v>40</v>
@@ -4437,7 +4428,7 @@
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1">
       <c r="A201" s="1" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="B201" s="3">
         <v>40</v>
@@ -4459,7 +4450,7 @@
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1">
       <c r="A202" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B202" s="3">
         <v>40</v>
@@ -4481,7 +4472,7 @@
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1">
       <c r="A203" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B203" s="3">
         <v>55</v>
@@ -4503,7 +4494,7 @@
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1">
       <c r="A204" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B204" s="3">
         <v>55</v>
@@ -4525,7 +4516,7 @@
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1">
       <c r="A205" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B205" s="3">
         <v>65</v>
@@ -4547,7 +4538,7 @@
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1">
       <c r="A206" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B206" s="3">
         <v>65</v>
@@ -4569,7 +4560,7 @@
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1">
       <c r="A207" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B207" s="3">
         <v>65</v>
@@ -4591,7 +4582,7 @@
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1">
       <c r="A208" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B208" s="3">
         <v>25</v>
@@ -4623,19 +4614,19 @@
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1">
       <c r="A210" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C210" s="6">
         <v>18568</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -4643,7 +4634,7 @@
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1">
       <c r="A211" s="1" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="B211" s="3">
         <v>12</v>
@@ -4665,7 +4656,7 @@
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1">
       <c r="A212" s="1" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="B212" s="3">
         <v>74</v>
@@ -4687,7 +4678,7 @@
     </row>
     <row r="213" spans="1:8" ht="15" thickBot="1">
       <c r="A213" s="1" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="B213" s="3">
         <v>74</v>
@@ -4709,7 +4700,7 @@
     </row>
     <row r="214" spans="1:8" ht="15" thickBot="1">
       <c r="A214" s="1" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B214" s="3">
         <v>74</v>
@@ -4731,7 +4722,7 @@
     </row>
     <row r="215" spans="1:8" ht="15" thickBot="1">
       <c r="A215" s="1" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="B215" s="3">
         <v>90</v>
@@ -4753,7 +4744,7 @@
     </row>
     <row r="216" spans="1:8" ht="15" thickBot="1">
       <c r="A216" s="1" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="B216" s="3">
         <v>90</v>
@@ -4775,7 +4766,7 @@
     </row>
     <row r="217" spans="1:8" ht="15" thickBot="1">
       <c r="A217" s="1" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="B217" s="3">
         <v>110</v>
@@ -4797,7 +4788,7 @@
     </row>
     <row r="218" spans="1:8" ht="15" thickBot="1">
       <c r="A218" s="1" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="B218" s="3">
         <v>70</v>
@@ -4819,7 +4810,7 @@
     </row>
     <row r="219" spans="1:8" ht="15" thickBot="1">
       <c r="A219" s="1" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="B219" s="3">
         <v>70</v>
@@ -4841,7 +4832,7 @@
     </row>
     <row r="220" spans="1:8" ht="15" thickBot="1">
       <c r="A220" s="1" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="B220" s="3">
         <v>70</v>
@@ -4863,7 +4854,7 @@
     </row>
     <row r="221" spans="1:8" ht="15" thickBot="1">
       <c r="A221" s="1" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B221" s="3">
         <v>80</v>
@@ -4885,7 +4876,7 @@
     </row>
     <row r="222" spans="1:8" ht="15" thickBot="1">
       <c r="A222" s="1" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="B222" s="3">
         <v>80</v>
@@ -4907,7 +4898,7 @@
     </row>
     <row r="223" spans="1:8" ht="15" thickBot="1">
       <c r="A223" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="B223" s="3">
         <v>80</v>
@@ -4929,7 +4920,7 @@
     </row>
     <row r="224" spans="1:8" ht="15" thickBot="1">
       <c r="A224" s="1" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="B224" s="3">
         <v>80</v>
@@ -4951,7 +4942,7 @@
     </row>
     <row r="225" spans="1:8" ht="15" thickBot="1">
       <c r="A225" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B225" s="3">
         <v>80</v>
@@ -4973,7 +4964,7 @@
     </row>
     <row r="226" spans="1:8" ht="15" thickBot="1">
       <c r="A226" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B226" s="3">
         <v>110</v>
@@ -4995,7 +4986,7 @@
     </row>
     <row r="227" spans="1:8" ht="15" thickBot="1">
       <c r="A227" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B227" s="3">
         <v>110</v>
@@ -5017,7 +5008,7 @@
     </row>
     <row r="228" spans="1:8" ht="15" thickBot="1">
       <c r="A228" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B228" s="3">
         <v>130</v>
@@ -5039,7 +5030,7 @@
     </row>
     <row r="229" spans="1:8" ht="15" thickBot="1">
       <c r="A229" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B229" s="3">
         <v>130</v>
@@ -5061,7 +5052,7 @@
     </row>
     <row r="230" spans="1:8" ht="15" thickBot="1">
       <c r="A230" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B230" s="3">
         <v>130</v>
@@ -5083,7 +5074,7 @@
     </row>
     <row r="231" spans="1:8" ht="15" thickBot="1">
       <c r="A231" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B231" s="3">
         <v>50</v>
@@ -5115,19 +5106,19 @@
     </row>
     <row r="233" spans="1:8" ht="15" thickBot="1">
       <c r="A233" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C233" s="6">
         <v>18568</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -5135,7 +5126,7 @@
     </row>
     <row r="234" spans="1:8" ht="15" thickBot="1">
       <c r="A234" s="1" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="B234" s="3">
         <v>15</v>
@@ -5157,7 +5148,7 @@
     </row>
     <row r="235" spans="1:8" ht="15" thickBot="1">
       <c r="A235" s="1" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="B235" s="3">
         <v>22</v>
@@ -5179,7 +5170,7 @@
     </row>
     <row r="236" spans="1:8" ht="15" thickBot="1">
       <c r="A236" s="1" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="B236" s="3">
         <v>22</v>
@@ -5201,7 +5192,7 @@
     </row>
     <row r="237" spans="1:8" ht="15" thickBot="1">
       <c r="A237" s="1" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B237" s="3">
         <v>22</v>
@@ -5223,7 +5214,7 @@
     </row>
     <row r="238" spans="1:8" ht="15" thickBot="1">
       <c r="A238" s="1" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="B238" s="3">
         <v>30</v>
@@ -5245,7 +5236,7 @@
     </row>
     <row r="239" spans="1:8" ht="15" thickBot="1">
       <c r="A239" s="1" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="B239" s="3">
         <v>30</v>
@@ -5267,7 +5258,7 @@
     </row>
     <row r="240" spans="1:8" ht="15" thickBot="1">
       <c r="A240" s="1" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="B240" s="3">
         <v>40</v>
@@ -5289,7 +5280,7 @@
     </row>
     <row r="241" spans="1:8" ht="15" thickBot="1">
       <c r="A241" s="1" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="B241" s="3">
         <v>20</v>
@@ -5311,7 +5302,7 @@
     </row>
     <row r="242" spans="1:8" ht="15" thickBot="1">
       <c r="A242" s="1" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="B242" s="3">
         <v>20</v>
@@ -5333,7 +5324,7 @@
     </row>
     <row r="243" spans="1:8" ht="15" thickBot="1">
       <c r="A243" s="1" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="B243" s="3">
         <v>20</v>
@@ -5355,7 +5346,7 @@
     </row>
     <row r="244" spans="1:8" ht="15" thickBot="1">
       <c r="A244" s="1" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B244" s="3">
         <v>25</v>
@@ -5377,7 +5368,7 @@
     </row>
     <row r="245" spans="1:8" ht="15" thickBot="1">
       <c r="A245" s="1" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="B245" s="3">
         <v>25</v>
@@ -5399,7 +5390,7 @@
     </row>
     <row r="246" spans="1:8" ht="15" thickBot="1">
       <c r="A246" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="B246" s="3">
         <v>25</v>
@@ -5421,7 +5412,7 @@
     </row>
     <row r="247" spans="1:8" ht="15" thickBot="1">
       <c r="A247" s="1" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="B247" s="3">
         <v>25</v>
@@ -5443,7 +5434,7 @@
     </row>
     <row r="248" spans="1:8" ht="15" thickBot="1">
       <c r="A248" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B248" s="3">
         <v>25</v>
@@ -5465,7 +5456,7 @@
     </row>
     <row r="249" spans="1:8" ht="15" thickBot="1">
       <c r="A249" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B249" s="3">
         <v>40</v>
@@ -5487,7 +5478,7 @@
     </row>
     <row r="250" spans="1:8" ht="15" thickBot="1">
       <c r="A250" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B250" s="3">
         <v>40</v>
@@ -5509,7 +5500,7 @@
     </row>
     <row r="251" spans="1:8" ht="15" thickBot="1">
       <c r="A251" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B251" s="3">
         <v>50</v>
@@ -5531,7 +5522,7 @@
     </row>
     <row r="252" spans="1:8" ht="15" thickBot="1">
       <c r="A252" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B252" s="3">
         <v>50</v>
@@ -5553,7 +5544,7 @@
     </row>
     <row r="253" spans="1:8" ht="15" thickBot="1">
       <c r="A253" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B253" s="3">
         <v>50</v>
@@ -5575,7 +5566,7 @@
     </row>
     <row r="254" spans="1:8" ht="15" thickBot="1">
       <c r="A254" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B254" s="3">
         <v>25</v>
@@ -5607,7 +5598,7 @@
     </row>
     <row r="256" spans="1:8" ht="15" thickBot="1">
       <c r="A256" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -5619,7 +5610,7 @@
     </row>
     <row r="257" spans="1:8" ht="15" thickBot="1">
       <c r="A257" s="1" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="B257" s="3">
         <v>30</v>
@@ -5641,7 +5632,7 @@
     </row>
     <row r="258" spans="1:8" ht="15" thickBot="1">
       <c r="A258" s="1" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="B258" s="3">
         <v>37</v>
@@ -5663,7 +5654,7 @@
     </row>
     <row r="259" spans="1:8" ht="15" thickBot="1">
       <c r="A259" s="1" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="B259" s="3">
         <v>37</v>
@@ -5685,7 +5676,7 @@
     </row>
     <row r="260" spans="1:8" ht="15" thickBot="1">
       <c r="A260" s="1" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B260" s="3">
         <v>37</v>
@@ -5707,7 +5698,7 @@
     </row>
     <row r="261" spans="1:8" ht="15" thickBot="1">
       <c r="A261" s="1" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="B261" s="3">
         <v>45</v>
@@ -5729,7 +5720,7 @@
     </row>
     <row r="262" spans="1:8" ht="15" thickBot="1">
       <c r="A262" s="1" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="B262" s="3">
         <v>45</v>
@@ -5751,7 +5742,7 @@
     </row>
     <row r="263" spans="1:8" ht="15" thickBot="1">
       <c r="A263" s="1" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="B263" s="3">
         <v>55</v>
@@ -5773,7 +5764,7 @@
     </row>
     <row r="264" spans="1:8" ht="15" thickBot="1">
       <c r="A264" s="1" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="B264" s="3">
         <v>35</v>
@@ -5795,7 +5786,7 @@
     </row>
     <row r="265" spans="1:8" ht="15" thickBot="1">
       <c r="A265" s="1" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="B265" s="3">
         <v>35</v>
@@ -5817,7 +5808,7 @@
     </row>
     <row r="266" spans="1:8" ht="15" thickBot="1">
       <c r="A266" s="1" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="B266" s="3">
         <v>35</v>
@@ -5839,7 +5830,7 @@
     </row>
     <row r="267" spans="1:8" ht="15" thickBot="1">
       <c r="A267" s="1" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B267" s="3">
         <v>40</v>
@@ -5861,7 +5852,7 @@
     </row>
     <row r="268" spans="1:8" ht="15" thickBot="1">
       <c r="A268" s="1" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="B268" s="3">
         <v>40</v>
@@ -5883,7 +5874,7 @@
     </row>
     <row r="269" spans="1:8" ht="15" thickBot="1">
       <c r="A269" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="B269" s="3">
         <v>40</v>
@@ -5905,7 +5896,7 @@
     </row>
     <row r="270" spans="1:8" ht="15" thickBot="1">
       <c r="A270" s="1" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="B270" s="3">
         <v>40</v>
@@ -5927,7 +5918,7 @@
     </row>
     <row r="271" spans="1:8" ht="15" thickBot="1">
       <c r="A271" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B271" s="3">
         <v>40</v>
@@ -5949,7 +5940,7 @@
     </row>
     <row r="272" spans="1:8" ht="15" thickBot="1">
       <c r="A272" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B272" s="3">
         <v>55</v>
@@ -5971,7 +5962,7 @@
     </row>
     <row r="273" spans="1:8" ht="15" thickBot="1">
       <c r="A273" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B273" s="3">
         <v>55</v>
@@ -5993,7 +5984,7 @@
     </row>
     <row r="274" spans="1:8" ht="15" thickBot="1">
       <c r="A274" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B274" s="3">
         <v>65</v>
@@ -6015,7 +6006,7 @@
     </row>
     <row r="275" spans="1:8" ht="15" thickBot="1">
       <c r="A275" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B275" s="3">
         <v>65</v>
@@ -6037,7 +6028,7 @@
     </row>
     <row r="276" spans="1:8" ht="15" thickBot="1">
       <c r="A276" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B276" s="3">
         <v>65</v>
@@ -6059,7 +6050,7 @@
     </row>
     <row r="277" spans="1:8" ht="15" thickBot="1">
       <c r="A277" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B277" s="3">
         <v>25</v>
@@ -6091,7 +6082,7 @@
     </row>
     <row r="279" spans="1:8" ht="15" thickBot="1">
       <c r="A279" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -6103,7 +6094,7 @@
     </row>
     <row r="280" spans="1:8" ht="15" thickBot="1">
       <c r="A280" s="1" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="B280" s="3">
         <v>30</v>
@@ -6125,7 +6116,7 @@
     </row>
     <row r="281" spans="1:8" ht="15" thickBot="1">
       <c r="A281" s="1" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="B281" s="3">
         <v>44</v>
@@ -6147,7 +6138,7 @@
     </row>
     <row r="282" spans="1:8" ht="15" thickBot="1">
       <c r="A282" s="1" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="B282" s="3">
         <v>44</v>
@@ -6169,7 +6160,7 @@
     </row>
     <row r="283" spans="1:8" ht="15" thickBot="1">
       <c r="A283" s="1" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B283" s="3">
         <v>44</v>
@@ -6191,7 +6182,7 @@
     </row>
     <row r="284" spans="1:8" ht="15" thickBot="1">
       <c r="A284" s="1" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="B284" s="3">
         <v>60</v>
@@ -6213,7 +6204,7 @@
     </row>
     <row r="285" spans="1:8" ht="15" thickBot="1">
       <c r="A285" s="1" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="B285" s="3">
         <v>60</v>
@@ -6235,7 +6226,7 @@
     </row>
     <row r="286" spans="1:8" ht="15" thickBot="1">
       <c r="A286" s="1" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="B286" s="3">
         <v>80</v>
@@ -6257,7 +6248,7 @@
     </row>
     <row r="287" spans="1:8" ht="15" thickBot="1">
       <c r="A287" s="1" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="B287" s="3">
         <v>40</v>
@@ -6279,7 +6270,7 @@
     </row>
     <row r="288" spans="1:8" ht="15" thickBot="1">
       <c r="A288" s="1" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="B288" s="3">
         <v>40</v>
@@ -6301,7 +6292,7 @@
     </row>
     <row r="289" spans="1:8" ht="15" thickBot="1">
       <c r="A289" s="1" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="B289" s="3">
         <v>40</v>
@@ -6323,7 +6314,7 @@
     </row>
     <row r="290" spans="1:8" ht="15" thickBot="1">
       <c r="A290" s="1" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B290" s="3">
         <v>50</v>
@@ -6345,7 +6336,7 @@
     </row>
     <row r="291" spans="1:8" ht="15" thickBot="1">
       <c r="A291" s="1" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="B291" s="3">
         <v>50</v>
@@ -6367,7 +6358,7 @@
     </row>
     <row r="292" spans="1:8" ht="15" thickBot="1">
       <c r="A292" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="B292" s="3">
         <v>50</v>
@@ -6389,7 +6380,7 @@
     </row>
     <row r="293" spans="1:8" ht="15" thickBot="1">
       <c r="A293" s="1" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="B293" s="3">
         <v>50</v>
@@ -6411,7 +6402,7 @@
     </row>
     <row r="294" spans="1:8" ht="15" thickBot="1">
       <c r="A294" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B294" s="3">
         <v>50</v>
@@ -6433,7 +6424,7 @@
     </row>
     <row r="295" spans="1:8" ht="15" thickBot="1">
       <c r="A295" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B295" s="3">
         <v>80</v>
@@ -6455,7 +6446,7 @@
     </row>
     <row r="296" spans="1:8" ht="15" thickBot="1">
       <c r="A296" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B296" s="3">
         <v>80</v>
@@ -6477,7 +6468,7 @@
     </row>
     <row r="297" spans="1:8" ht="15" thickBot="1">
       <c r="A297" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B297" s="3">
         <v>100</v>
@@ -6499,7 +6490,7 @@
     </row>
     <row r="298" spans="1:8" ht="15" thickBot="1">
       <c r="A298" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B298" s="3">
         <v>100</v>
@@ -6521,7 +6512,7 @@
     </row>
     <row r="299" spans="1:8" ht="15" thickBot="1">
       <c r="A299" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B299" s="3">
         <v>100</v>
@@ -6543,7 +6534,7 @@
     </row>
     <row r="300" spans="1:8" ht="15" thickBot="1">
       <c r="A300" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B300" s="3">
         <v>50</v>
@@ -6575,7 +6566,7 @@
     </row>
     <row r="302" spans="1:8" ht="15" thickBot="1">
       <c r="A302" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -6587,7 +6578,7 @@
     </row>
     <row r="303" spans="1:8" ht="15" thickBot="1">
       <c r="A303" s="1" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="B303" s="3">
         <v>60</v>
@@ -6609,7 +6600,7 @@
     </row>
     <row r="304" spans="1:8" ht="15" thickBot="1">
       <c r="A304" s="1" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="B304" s="3">
         <v>74</v>
@@ -6631,7 +6622,7 @@
     </row>
     <row r="305" spans="1:8" ht="15" thickBot="1">
       <c r="A305" s="1" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="B305" s="3">
         <v>74</v>
@@ -6653,7 +6644,7 @@
     </row>
     <row r="306" spans="1:8" ht="15" thickBot="1">
       <c r="A306" s="1" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B306" s="3">
         <v>74</v>
@@ -6675,7 +6666,7 @@
     </row>
     <row r="307" spans="1:8" ht="15" thickBot="1">
       <c r="A307" s="1" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="B307" s="3">
         <v>90</v>
@@ -6697,7 +6688,7 @@
     </row>
     <row r="308" spans="1:8" ht="15" thickBot="1">
       <c r="A308" s="1" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="B308" s="3">
         <v>90</v>
@@ -6719,7 +6710,7 @@
     </row>
     <row r="309" spans="1:8" ht="15" thickBot="1">
       <c r="A309" s="1" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="B309" s="3">
         <v>110</v>
@@ -6741,7 +6732,7 @@
     </row>
     <row r="310" spans="1:8" ht="15" thickBot="1">
       <c r="A310" s="1" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="B310" s="3">
         <v>70</v>
@@ -6763,7 +6754,7 @@
     </row>
     <row r="311" spans="1:8" ht="15" thickBot="1">
       <c r="A311" s="1" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="B311" s="3">
         <v>70</v>
@@ -6785,7 +6776,7 @@
     </row>
     <row r="312" spans="1:8" ht="15" thickBot="1">
       <c r="A312" s="1" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="B312" s="3">
         <v>70</v>
@@ -6807,7 +6798,7 @@
     </row>
     <row r="313" spans="1:8" ht="15" thickBot="1">
       <c r="A313" s="1" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B313" s="3">
         <v>80</v>
@@ -6829,7 +6820,7 @@
     </row>
     <row r="314" spans="1:8" ht="15" thickBot="1">
       <c r="A314" s="1" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="B314" s="3">
         <v>80</v>
@@ -6851,7 +6842,7 @@
     </row>
     <row r="315" spans="1:8" ht="15" thickBot="1">
       <c r="A315" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="B315" s="3">
         <v>80</v>
@@ -6873,7 +6864,7 @@
     </row>
     <row r="316" spans="1:8" ht="15" thickBot="1">
       <c r="A316" s="1" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="B316" s="3">
         <v>80</v>
@@ -6895,7 +6886,7 @@
     </row>
     <row r="317" spans="1:8" ht="15" thickBot="1">
       <c r="A317" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B317" s="3">
         <v>80</v>
@@ -6917,7 +6908,7 @@
     </row>
     <row r="318" spans="1:8" ht="15" thickBot="1">
       <c r="A318" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B318" s="3">
         <v>110</v>
@@ -6939,7 +6930,7 @@
     </row>
     <row r="319" spans="1:8" ht="15" thickBot="1">
       <c r="A319" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B319" s="3">
         <v>110</v>
@@ -6961,7 +6952,7 @@
     </row>
     <row r="320" spans="1:8" ht="15" thickBot="1">
       <c r="A320" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B320" s="3">
         <v>130</v>
@@ -6983,7 +6974,7 @@
     </row>
     <row r="321" spans="1:8" ht="15" thickBot="1">
       <c r="A321" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B321" s="3">
         <v>130</v>
@@ -7005,7 +6996,7 @@
     </row>
     <row r="322" spans="1:8" ht="15" thickBot="1">
       <c r="A322" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B322" s="3">
         <v>130</v>
@@ -7027,7 +7018,7 @@
     </row>
     <row r="323" spans="1:8" ht="15" thickBot="1">
       <c r="A323" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B323" s="3">
         <v>50</v>
@@ -7059,7 +7050,7 @@
     </row>
     <row r="325" spans="1:8" ht="15" thickBot="1">
       <c r="A325" s="4" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -7071,7 +7062,7 @@
     </row>
     <row r="326" spans="1:8" ht="15" thickBot="1">
       <c r="A326" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B326" s="3">
         <v>10</v>
@@ -7091,7 +7082,7 @@
     </row>
     <row r="327" spans="1:8" ht="15" thickBot="1">
       <c r="A327" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B327" s="3">
         <v>20</v>
@@ -7111,7 +7102,7 @@
     </row>
     <row r="328" spans="1:8" ht="15" thickBot="1">
       <c r="A328" s="1" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B328" s="3">
         <v>20</v>
@@ -7191,7 +7182,7 @@
     </row>
     <row r="333" spans="1:8" ht="15" thickBot="1">
       <c r="A333" s="4" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -7203,7 +7194,7 @@
     </row>
     <row r="334" spans="1:8" ht="15" thickBot="1">
       <c r="A334" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B334" s="3">
         <v>40</v>
@@ -7217,7 +7208,7 @@
     </row>
     <row r="335" spans="1:8" ht="15" thickBot="1">
       <c r="A335" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B335" s="3">
         <v>80</v>
@@ -7231,7 +7222,7 @@
     </row>
     <row r="336" spans="1:8" ht="15" thickBot="1">
       <c r="A336" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B336" s="3">
         <v>160</v>
@@ -7245,7 +7236,7 @@
     </row>
     <row r="337" spans="1:8" ht="15" thickBot="1">
       <c r="A337" s="5" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B337" s="3">
         <v>160</v>
@@ -7259,7 +7250,7 @@
     </row>
     <row r="338" spans="1:8" ht="15" thickBot="1">
       <c r="A338" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B338" s="3">
         <v>100</v>
@@ -7273,7 +7264,7 @@
     </row>
     <row r="339" spans="1:8" ht="15" thickBot="1">
       <c r="A339" s="5" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B339" s="3">
         <v>200</v>
@@ -7287,7 +7278,7 @@
     </row>
     <row r="340" spans="1:8" ht="15" thickBot="1">
       <c r="A340" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B340" s="3">
         <v>400</v>
@@ -7301,7 +7292,7 @@
     </row>
     <row r="341" spans="1:8" ht="15" thickBot="1">
       <c r="A341" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B341" s="3">
         <v>400</v>
@@ -7315,7 +7306,7 @@
     </row>
     <row r="342" spans="1:8" ht="15" thickBot="1">
       <c r="A342" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B342" s="3">
         <v>175</v>
@@ -7329,7 +7320,7 @@
     </row>
     <row r="343" spans="1:8" ht="15" thickBot="1">
       <c r="A343" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B343" s="3">
         <v>350</v>
@@ -7343,7 +7334,7 @@
     </row>
     <row r="344" spans="1:8" ht="15" thickBot="1">
       <c r="A344" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B344" s="3">
         <v>700</v>
@@ -7357,7 +7348,7 @@
     </row>
     <row r="345" spans="1:8" ht="15" thickBot="1">
       <c r="A345" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B345" s="3">
         <v>700</v>
@@ -7381,14 +7372,14 @@
     </row>
     <row r="347" spans="1:8" ht="15" thickBot="1">
       <c r="A347" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B347" s="1"/>
       <c r="C347" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
@@ -7397,7 +7388,7 @@
     </row>
     <row r="348" spans="1:8" ht="15" thickBot="1">
       <c r="A348" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B348" s="3">
         <v>0</v>
@@ -7415,7 +7406,7 @@
     </row>
     <row r="349" spans="1:8" ht="15" thickBot="1">
       <c r="A349" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B349" s="3">
         <v>0</v>
@@ -7433,7 +7424,7 @@
     </row>
     <row r="350" spans="1:8" ht="15" thickBot="1">
       <c r="A350" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B350" s="3">
         <v>35</v>
@@ -7451,7 +7442,7 @@
     </row>
     <row r="351" spans="1:8" ht="15" thickBot="1">
       <c r="A351" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B351" s="3">
         <v>50</v>
@@ -7469,7 +7460,7 @@
     </row>
     <row r="352" spans="1:8" ht="15" thickBot="1">
       <c r="A352" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B352" s="3">
         <v>40</v>
@@ -7487,7 +7478,7 @@
     </row>
     <row r="353" spans="1:8" ht="15" thickBot="1">
       <c r="A353" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B353" s="3">
         <v>175</v>
@@ -7505,7 +7496,7 @@
     </row>
     <row r="354" spans="1:8" ht="15" thickBot="1">
       <c r="A354" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B354" s="3">
         <v>185</v>
@@ -7523,7 +7514,7 @@
     </row>
     <row r="355" spans="1:8" ht="15" thickBot="1">
       <c r="A355" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B355" s="3">
         <v>195</v>
@@ -7551,7 +7542,7 @@
     </row>
     <row r="357" spans="1:8" ht="15" thickBot="1">
       <c r="A357" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -7563,7 +7554,7 @@
     </row>
     <row r="358" spans="1:8" ht="15" thickBot="1">
       <c r="A358" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B358" s="3">
         <v>0</v>
@@ -7577,7 +7568,7 @@
     </row>
     <row r="359" spans="1:8" ht="15" thickBot="1">
       <c r="A359" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B359" s="3">
         <v>0</v>
@@ -7595,7 +7586,7 @@
     </row>
     <row r="360" spans="1:8" ht="15" thickBot="1">
       <c r="A360" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B360" s="3">
         <v>40</v>
@@ -7613,7 +7604,7 @@
     </row>
     <row r="361" spans="1:8" ht="15" thickBot="1">
       <c r="A361" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B361" s="3">
         <v>60</v>
@@ -7631,7 +7622,7 @@
     </row>
     <row r="362" spans="1:8" ht="15" thickBot="1">
       <c r="A362" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B362" s="3">
         <v>50</v>
@@ -7659,7 +7650,7 @@
     </row>
     <row r="364" spans="1:8" ht="15" thickBot="1">
       <c r="A364" s="8" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -7671,7 +7662,7 @@
     </row>
     <row r="365" spans="1:8" ht="15" thickBot="1">
       <c r="A365" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B365" s="3">
         <v>25</v>
@@ -7693,7 +7684,7 @@
     </row>
     <row r="366" spans="1:8" ht="15" thickBot="1">
       <c r="A366" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B366" s="3">
         <v>35</v>
@@ -7715,7 +7706,7 @@
     </row>
     <row r="367" spans="1:8" ht="15" thickBot="1">
       <c r="A367" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B367" s="3">
         <v>50</v>
@@ -7747,7 +7738,7 @@
     </row>
     <row r="369" spans="1:8" ht="15" thickBot="1">
       <c r="A369" s="8" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -7759,7 +7750,7 @@
     </row>
     <row r="370" spans="1:8" ht="15" thickBot="1">
       <c r="A370" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B370" s="3">
         <v>40</v>
@@ -7781,7 +7772,7 @@
     </row>
     <row r="371" spans="1:8" ht="15" thickBot="1">
       <c r="A371" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B371" s="3">
         <v>50</v>
@@ -7803,7 +7794,7 @@
     </row>
     <row r="372" spans="1:8" ht="15" thickBot="1">
       <c r="A372" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B372" s="3">
         <v>60</v>
@@ -7835,7 +7826,7 @@
     </row>
     <row r="374" spans="1:8" ht="15" thickBot="1">
       <c r="A374" s="4" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -7847,7 +7838,7 @@
     </row>
     <row r="375" spans="1:8" ht="15" thickBot="1">
       <c r="A375" s="1" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B375" s="3">
         <v>150</v>
@@ -7861,7 +7852,7 @@
     </row>
     <row r="376" spans="1:8" ht="15" thickBot="1">
       <c r="A376" s="5" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B376" s="3">
         <v>180</v>
@@ -7875,7 +7866,7 @@
     </row>
     <row r="377" spans="1:8" ht="15" thickBot="1">
       <c r="A377" s="5" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B377" s="3">
         <v>250</v>
@@ -7889,7 +7880,7 @@
     </row>
     <row r="378" spans="1:8" ht="15" thickBot="1">
       <c r="A378" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B378" s="3">
         <v>250</v>
@@ -7903,7 +7894,7 @@
     </row>
     <row r="379" spans="1:8" ht="15" thickBot="1">
       <c r="A379" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B379" s="3">
         <v>400</v>
@@ -7917,7 +7908,7 @@
     </row>
     <row r="380" spans="1:8" ht="15" thickBot="1">
       <c r="A380" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B380" s="3">
         <v>250</v>
@@ -7931,7 +7922,7 @@
     </row>
     <row r="381" spans="1:8" ht="15" thickBot="1">
       <c r="A381" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B381" s="3">
         <v>250</v>
@@ -7945,7 +7936,7 @@
     </row>
     <row r="382" spans="1:8" ht="15" thickBot="1">
       <c r="A382" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B382" s="3">
         <v>20</v>
@@ -7959,7 +7950,7 @@
     </row>
     <row r="383" spans="1:8" ht="15" thickBot="1">
       <c r="A383" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B383" s="3">
         <v>40</v>
@@ -7983,7 +7974,7 @@
     </row>
     <row r="385" spans="1:8" ht="15" thickBot="1">
       <c r="A385" s="4" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -7995,7 +7986,7 @@
     </row>
     <row r="386" spans="1:8" ht="15" thickBot="1">
       <c r="A386" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B386" s="3">
         <v>2500</v>
@@ -8009,7 +8000,7 @@
     </row>
     <row r="387" spans="1:8" ht="15" thickBot="1">
       <c r="A387" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B387" s="3">
         <v>150</v>
@@ -8023,7 +8014,7 @@
     </row>
     <row r="388" spans="1:8" ht="15" thickBot="1">
       <c r="A388" s="5" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B388" s="3">
         <v>300</v>
@@ -8037,7 +8028,7 @@
     </row>
     <row r="389" spans="1:8" ht="15" thickBot="1">
       <c r="A389" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B389" s="3">
         <v>500</v>
@@ -8051,7 +8042,7 @@
     </row>
     <row r="390" spans="1:8" ht="15" thickBot="1">
       <c r="A390" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B390" s="3">
         <v>600</v>
@@ -8065,7 +8056,7 @@
     </row>
     <row r="391" spans="1:8" ht="15" thickBot="1">
       <c r="A391" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B391" s="3">
         <v>875</v>
@@ -8079,7 +8070,7 @@
     </row>
     <row r="392" spans="1:8" ht="15" thickBot="1">
       <c r="A392" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B392" s="3">
         <v>750</v>
@@ -8093,7 +8084,7 @@
     </row>
     <row r="393" spans="1:8" ht="15" thickBot="1">
       <c r="A393" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B393" s="3">
         <v>1350</v>
@@ -8107,7 +8098,7 @@
     </row>
     <row r="394" spans="1:8" ht="15" thickBot="1">
       <c r="A394" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B394" s="3">
         <v>2700</v>
@@ -8131,13 +8122,13 @@
     </row>
     <row r="396" spans="1:8" ht="27.6" thickBot="1">
       <c r="A396" s="9" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -8147,7 +8138,7 @@
     </row>
     <row r="397" spans="1:8" ht="15" thickBot="1">
       <c r="A397" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B397" s="3">
         <v>200</v>
@@ -8163,7 +8154,7 @@
     </row>
     <row r="398" spans="1:8" ht="15" thickBot="1">
       <c r="A398" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B398" s="3">
         <v>240</v>
@@ -8179,7 +8170,7 @@
     </row>
     <row r="399" spans="1:8" ht="15" thickBot="1">
       <c r="A399" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B399" s="3">
         <v>320</v>
@@ -8195,7 +8186,7 @@
     </row>
     <row r="400" spans="1:8" ht="15" thickBot="1">
       <c r="A400" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B400" s="3">
         <v>400</v>
@@ -8221,13 +8212,13 @@
     </row>
     <row r="402" spans="1:8" ht="27.6" thickBot="1">
       <c r="A402" s="9" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -8237,7 +8228,7 @@
     </row>
     <row r="403" spans="1:8" ht="15" thickBot="1">
       <c r="A403" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B403" s="3">
         <v>714</v>
@@ -8253,7 +8244,7 @@
     </row>
     <row r="404" spans="1:8" ht="15" thickBot="1">
       <c r="A404" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B404" s="3">
         <v>924</v>
@@ -8269,7 +8260,7 @@
     </row>
     <row r="405" spans="1:8" ht="15" thickBot="1">
       <c r="A405" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B405" s="3">
         <v>1302</v>
@@ -8285,7 +8276,7 @@
     </row>
     <row r="406" spans="1:8" ht="15" thickBot="1">
       <c r="A406" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B406" s="3">
         <v>1554</v>
@@ -8321,13 +8312,13 @@
     </row>
     <row r="409" spans="1:8" ht="27.6" thickBot="1">
       <c r="A409" s="9" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -8337,7 +8328,7 @@
     </row>
     <row r="410" spans="1:8" ht="15" thickBot="1">
       <c r="A410" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B410" s="3">
         <v>65</v>
@@ -8353,7 +8344,7 @@
     </row>
     <row r="411" spans="1:8" ht="15" thickBot="1">
       <c r="A411" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B411" s="3">
         <v>65</v>
@@ -8379,7 +8370,7 @@
     </row>
     <row r="413" spans="1:8" ht="15" thickBot="1">
       <c r="A413" s="9" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -8391,7 +8382,7 @@
     </row>
     <row r="414" spans="1:8" ht="15" thickBot="1">
       <c r="A414" s="1" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B414" s="3">
         <v>140</v>
@@ -8407,7 +8398,7 @@
     </row>
     <row r="415" spans="1:8" ht="15" thickBot="1">
       <c r="A415" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B415" s="3">
         <v>140</v>
@@ -8423,7 +8414,7 @@
     </row>
     <row r="416" spans="1:8" ht="15" thickBot="1">
       <c r="A416" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B416" s="3">
         <v>90</v>
@@ -8439,7 +8430,7 @@
     </row>
     <row r="417" spans="1:8" ht="15" thickBot="1">
       <c r="A417" s="1" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B417" s="3">
         <v>90</v>
@@ -8455,7 +8446,7 @@
     </row>
     <row r="418" spans="1:8" ht="15" thickBot="1">
       <c r="A418" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B418" s="3">
         <v>90</v>
@@ -8481,13 +8472,13 @@
     </row>
     <row r="420" spans="1:8" ht="27.6" thickBot="1">
       <c r="A420" s="9" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -8497,7 +8488,7 @@
     </row>
     <row r="421" spans="1:8" ht="15" thickBot="1">
       <c r="A421" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B421" s="3">
         <v>100</v>
@@ -8513,7 +8504,7 @@
     </row>
     <row r="422" spans="1:8" ht="15" thickBot="1">
       <c r="A422" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B422" s="3">
         <v>100</v>
@@ -8529,7 +8520,7 @@
     </row>
     <row r="423" spans="1:8" ht="15" thickBot="1">
       <c r="A423" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B423" s="3">
         <v>100</v>
@@ -8545,7 +8536,7 @@
     </row>
     <row r="424" spans="1:8" ht="15" thickBot="1">
       <c r="A424" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B424" s="3">
         <v>100</v>
@@ -8561,7 +8552,7 @@
     </row>
     <row r="425" spans="1:8" ht="15" thickBot="1">
       <c r="A425" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B425" s="3">
         <v>100</v>
@@ -8587,13 +8578,13 @@
     </row>
     <row r="427" spans="1:8" ht="27.6" thickBot="1">
       <c r="A427" s="9" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -8603,7 +8594,7 @@
     </row>
     <row r="428" spans="1:8" ht="15" thickBot="1">
       <c r="A428" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B428" s="3">
         <v>100</v>
@@ -8619,7 +8610,7 @@
     </row>
     <row r="429" spans="1:8" ht="15" thickBot="1">
       <c r="A429" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B429" s="3">
         <v>100</v>
@@ -8635,7 +8626,7 @@
     </row>
     <row r="430" spans="1:8" ht="15" thickBot="1">
       <c r="A430" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B430" s="3">
         <v>100</v>
@@ -8661,7 +8652,7 @@
     </row>
     <row r="432" spans="1:8" ht="15" thickBot="1">
       <c r="A432" s="10" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B432" s="3">
         <v>310</v>
@@ -8677,7 +8668,7 @@
     </row>
     <row r="433" spans="1:8" ht="15" thickBot="1">
       <c r="A433" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B433" s="3">
         <v>45</v>
@@ -8713,7 +8704,7 @@
     </row>
     <row r="436" spans="1:8" ht="15" thickBot="1">
       <c r="A436" s="12" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -8725,7 +8716,7 @@
     </row>
     <row r="437" spans="1:8" ht="15" thickBot="1">
       <c r="A437" s="13" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -8737,7 +8728,7 @@
     </row>
     <row r="438" spans="1:8" ht="15" thickBot="1">
       <c r="A438" s="13" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -8759,7 +8750,7 @@
     </row>
     <row r="440" spans="1:8" ht="15" thickBot="1">
       <c r="A440" s="13" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -8771,7 +8762,7 @@
     </row>
     <row r="441" spans="1:8" ht="15" thickBot="1">
       <c r="A441" s="14" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B441" s="15">
         <v>200</v>
@@ -8785,7 +8776,7 @@
     </row>
     <row r="442" spans="1:8" ht="15" thickBot="1">
       <c r="A442" s="14" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B442" s="15">
         <v>450</v>
@@ -8799,7 +8790,7 @@
     </row>
     <row r="443" spans="1:8" ht="15" thickBot="1">
       <c r="A443" s="14" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B443" s="15">
         <v>700</v>
@@ -8813,7 +8804,7 @@
     </row>
     <row r="444" spans="1:8" ht="15" thickBot="1">
       <c r="A444" s="14" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -8835,7 +8826,7 @@
     </row>
     <row r="446" spans="1:8" ht="15" thickBot="1">
       <c r="A446" s="14" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -8847,7 +8838,7 @@
     </row>
     <row r="447" spans="1:8" ht="15" thickBot="1">
       <c r="A447" s="16" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B447" s="15">
         <v>2000</v>
@@ -8861,7 +8852,7 @@
     </row>
     <row r="448" spans="1:8" ht="15" thickBot="1">
       <c r="A448" s="16" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B448" s="15">
         <v>3000</v>
@@ -8885,7 +8876,7 @@
     </row>
     <row r="450" spans="1:8" ht="15" thickBot="1">
       <c r="A450" s="13" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -8897,7 +8888,7 @@
     </row>
     <row r="451" spans="1:8" ht="15" thickBot="1">
       <c r="A451" s="17" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B451" s="15">
         <v>500</v>
@@ -8911,7 +8902,7 @@
     </row>
     <row r="452" spans="1:8" ht="15" thickBot="1">
       <c r="A452" s="14" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B452" s="15">
         <v>800</v>
@@ -8925,7 +8916,7 @@
     </row>
     <row r="453" spans="1:8" ht="15" thickBot="1">
       <c r="A453" s="14" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -8937,7 +8928,7 @@
     </row>
     <row r="454" spans="1:8" ht="15" thickBot="1">
       <c r="A454" s="14" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B454" s="15">
         <v>500</v>
@@ -8951,7 +8942,7 @@
     </row>
     <row r="455" spans="1:8" ht="15" thickBot="1">
       <c r="A455" s="17" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -8963,7 +8954,7 @@
     </row>
     <row r="456" spans="1:8" ht="15" thickBot="1">
       <c r="A456" s="18" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B456" s="3">
         <v>300</v>
@@ -8977,7 +8968,7 @@
     </row>
     <row r="457" spans="1:8" ht="15" thickBot="1">
       <c r="A457" s="18" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B457" s="15">
         <v>1000</v>
@@ -8991,7 +8982,7 @@
     </row>
     <row r="458" spans="1:8" ht="15" thickBot="1">
       <c r="A458" s="18" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="B458" s="15">
         <v>650</v>
@@ -9005,7 +8996,7 @@
     </row>
     <row r="459" spans="1:8" ht="15" thickBot="1">
       <c r="A459" s="18" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -9017,7 +9008,7 @@
     </row>
     <row r="460" spans="1:8" ht="15" thickBot="1">
       <c r="A460" s="18" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -9039,7 +9030,7 @@
     </row>
     <row r="462" spans="1:8" ht="15" thickBot="1">
       <c r="A462" s="14" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -9051,7 +9042,7 @@
     </row>
     <row r="463" spans="1:8" ht="15" thickBot="1">
       <c r="A463" s="1" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B463" s="15"/>
       <c r="C463" s="16"/>
@@ -9063,13 +9054,13 @@
     </row>
     <row r="464" spans="1:8" ht="15" thickBot="1">
       <c r="A464" s="16" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B464" s="15">
         <v>10</v>
       </c>
       <c r="C464" s="16" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -9079,13 +9070,13 @@
     </row>
     <row r="465" spans="1:8" ht="15" thickBot="1">
       <c r="A465" s="16" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B465" s="15">
         <v>30</v>
       </c>
       <c r="C465" s="16" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -9095,7 +9086,7 @@
     </row>
     <row r="466" spans="1:8" ht="15" thickBot="1">
       <c r="A466" s="18" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B466" s="15">
         <v>500</v>
@@ -9109,7 +9100,7 @@
     </row>
     <row r="467" spans="1:8" ht="15" thickBot="1">
       <c r="A467" s="19" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B467" s="15"/>
       <c r="C467" s="1"/>
@@ -9131,7 +9122,7 @@
     </row>
     <row r="469" spans="1:8" ht="15" thickBot="1">
       <c r="A469" s="16" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B469" s="15"/>
       <c r="C469" s="1"/>
@@ -9143,7 +9134,7 @@
     </row>
     <row r="470" spans="1:8" ht="15" thickBot="1">
       <c r="A470" s="19" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B470" s="15"/>
       <c r="C470" s="1"/>
@@ -9155,13 +9146,13 @@
     </row>
     <row r="471" spans="1:8" ht="15" thickBot="1">
       <c r="A471" s="19" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B471" s="15">
         <v>10</v>
       </c>
       <c r="C471" s="16" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -9181,7 +9172,7 @@
     </row>
     <row r="473" spans="1:8" ht="15" thickBot="1">
       <c r="A473" s="16" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B473" s="15"/>
       <c r="C473" s="1"/>
@@ -9193,7 +9184,7 @@
     </row>
     <row r="474" spans="1:8" ht="15" thickBot="1">
       <c r="A474" s="19" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B474" s="15"/>
       <c r="C474" s="1"/>
@@ -9205,13 +9196,13 @@
     </row>
     <row r="475" spans="1:8" ht="15" thickBot="1">
       <c r="A475" s="16" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B475" s="15">
         <v>30</v>
       </c>
       <c r="C475" s="16" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -9231,7 +9222,7 @@
     </row>
     <row r="477" spans="1:8" ht="15" thickBot="1">
       <c r="A477" s="20" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -9243,7 +9234,7 @@
     </row>
     <row r="478" spans="1:8" ht="15" thickBot="1">
       <c r="A478" s="20" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B478" s="15"/>
       <c r="C478" s="1"/>
@@ -9255,7 +9246,7 @@
     </row>
     <row r="479" spans="1:8" ht="15" thickBot="1">
       <c r="A479" s="20" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B479" s="15">
         <v>150</v>
@@ -9269,7 +9260,7 @@
     </row>
     <row r="480" spans="1:8" ht="15" thickBot="1">
       <c r="A480" s="20" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B480" s="15">
         <v>150</v>
@@ -9293,7 +9284,7 @@
     </row>
     <row r="482" spans="1:8" ht="15" thickBot="1">
       <c r="A482" s="18" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -9305,7 +9296,7 @@
     </row>
     <row r="483" spans="1:8" ht="15" thickBot="1">
       <c r="A483" s="21" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -9317,7 +9308,7 @@
     </row>
     <row r="484" spans="1:8" ht="15" thickBot="1">
       <c r="A484" s="18" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B484" s="15">
         <v>500</v>
@@ -9341,7 +9332,7 @@
     </row>
     <row r="486" spans="1:8" ht="15" thickBot="1">
       <c r="A486" s="17" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -9353,7 +9344,7 @@
     </row>
     <row r="487" spans="1:8" ht="15" thickBot="1">
       <c r="A487" s="16" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B487" s="15">
         <v>240</v>
@@ -9367,7 +9358,7 @@
     </row>
     <row r="488" spans="1:8" ht="15" thickBot="1">
       <c r="A488" s="16" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B488" s="15">
         <v>300</v>
@@ -9381,7 +9372,7 @@
     </row>
     <row r="489" spans="1:8" ht="15" thickBot="1">
       <c r="A489" s="16" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B489" s="15">
         <v>180</v>
@@ -9395,7 +9386,7 @@
     </row>
     <row r="490" spans="1:8" ht="15" thickBot="1">
       <c r="A490" s="16" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B490" s="15">
         <v>360</v>
@@ -9419,7 +9410,7 @@
     </row>
     <row r="492" spans="1:8" ht="15" thickBot="1">
       <c r="A492" s="18" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -9431,7 +9422,7 @@
     </row>
     <row r="493" spans="1:8" ht="15" thickBot="1">
       <c r="A493" s="16" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B493" s="15">
         <v>300</v>
@@ -9445,7 +9436,7 @@
     </row>
     <row r="494" spans="1:8" ht="15" thickBot="1">
       <c r="A494" s="16" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B494" s="15">
         <v>350</v>
@@ -9459,7 +9450,7 @@
     </row>
     <row r="495" spans="1:8" ht="15" thickBot="1">
       <c r="A495" s="16" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B495" s="15">
         <v>400</v>
@@ -9473,7 +9464,7 @@
     </row>
     <row r="496" spans="1:8" ht="15" thickBot="1">
       <c r="A496" s="16" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B496" s="15">
         <v>500</v>
@@ -9487,7 +9478,7 @@
     </row>
     <row r="497" spans="1:8" ht="15" thickBot="1">
       <c r="A497" s="16" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B497" s="15">
         <v>600</v>
@@ -9501,7 +9492,7 @@
     </row>
     <row r="498" spans="1:8" ht="15" thickBot="1">
       <c r="A498" s="16" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B498" s="15">
         <v>1100</v>
@@ -9525,7 +9516,7 @@
     </row>
     <row r="500" spans="1:8" ht="15" thickBot="1">
       <c r="A500" s="18" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -9537,7 +9528,7 @@
     </row>
     <row r="501" spans="1:8" ht="15" thickBot="1">
       <c r="A501" s="16" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B501" s="15">
         <v>1000</v>
@@ -9551,7 +9542,7 @@
     </row>
     <row r="502" spans="1:8" ht="15" thickBot="1">
       <c r="A502" s="16" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B502" s="15">
         <v>1500</v>
@@ -9565,7 +9556,7 @@
     </row>
     <row r="503" spans="1:8" ht="15" thickBot="1">
       <c r="A503" s="16" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B503" s="15">
         <v>1800</v>
@@ -9579,7 +9570,7 @@
     </row>
     <row r="504" spans="1:8" ht="15" thickBot="1">
       <c r="A504" s="16" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B504" s="15">
         <v>2300</v>
@@ -9603,7 +9594,7 @@
     </row>
     <row r="506" spans="1:8" ht="15" thickBot="1">
       <c r="A506" s="18" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -9615,7 +9606,7 @@
     </row>
     <row r="507" spans="1:8" ht="15" thickBot="1">
       <c r="A507" s="16" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B507" s="15">
         <v>1500</v>
@@ -9629,7 +9620,7 @@
     </row>
     <row r="508" spans="1:8" ht="15" thickBot="1">
       <c r="A508" s="16" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B508" s="15">
         <v>1900</v>
@@ -9643,7 +9634,7 @@
     </row>
     <row r="509" spans="1:8" ht="15" thickBot="1">
       <c r="A509" s="16" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B509" s="15">
         <v>2700</v>
@@ -9657,7 +9648,7 @@
     </row>
     <row r="510" spans="1:8" ht="15" thickBot="1">
       <c r="A510" s="16" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B510" s="15">
         <v>3500</v>
@@ -9681,7 +9672,7 @@
     </row>
     <row r="512" spans="1:8" ht="15" thickBot="1">
       <c r="A512" s="14" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -9693,7 +9684,7 @@
     </row>
     <row r="513" spans="1:8" ht="15" thickBot="1">
       <c r="A513" s="16" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B513" s="15">
         <v>350</v>
@@ -9707,7 +9698,7 @@
     </row>
     <row r="514" spans="1:8" ht="15" thickBot="1">
       <c r="A514" s="16" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B514" s="15">
         <v>400</v>
@@ -9721,7 +9712,7 @@
     </row>
     <row r="515" spans="1:8" ht="15" thickBot="1">
       <c r="A515" s="16" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B515" s="15">
         <v>500</v>
@@ -9735,7 +9726,7 @@
     </row>
     <row r="516" spans="1:8" ht="15" thickBot="1">
       <c r="A516" s="16" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B516" s="15">
         <v>500</v>
@@ -9749,7 +9740,7 @@
     </row>
     <row r="517" spans="1:8" ht="15" thickBot="1">
       <c r="A517" s="16" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B517" s="15">
         <v>350</v>
@@ -9763,7 +9754,7 @@
     </row>
     <row r="518" spans="1:8" ht="15" thickBot="1">
       <c r="A518" s="16" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B518" s="15">
         <v>350</v>
@@ -9777,7 +9768,7 @@
     </row>
     <row r="519" spans="1:8" ht="15" thickBot="1">
       <c r="A519" s="16" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B519" s="15">
         <v>600</v>
@@ -9801,7 +9792,7 @@
     </row>
     <row r="521" spans="1:8" ht="15" thickBot="1">
       <c r="A521" s="14" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -9843,7 +9834,7 @@
     </row>
     <row r="525" spans="1:8" ht="15" thickBot="1">
       <c r="A525" s="14" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -9885,7 +9876,7 @@
     </row>
     <row r="529" spans="1:8" ht="15" thickBot="1">
       <c r="A529" s="14" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -9927,7 +9918,7 @@
     </row>
     <row r="533" spans="1:8" ht="15" thickBot="1">
       <c r="A533" s="14" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -9969,7 +9960,7 @@
     </row>
     <row r="537" spans="1:8" ht="15" thickBot="1">
       <c r="A537" s="14" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -10011,7 +10002,7 @@
     </row>
     <row r="541" spans="1:8" ht="15" thickBot="1">
       <c r="A541" s="14" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -10023,7 +10014,7 @@
     </row>
     <row r="542" spans="1:8" ht="15" thickBot="1">
       <c r="A542" s="16" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -10035,7 +10026,7 @@
     </row>
     <row r="543" spans="1:8" ht="15" thickBot="1">
       <c r="A543" s="16" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -10057,7 +10048,7 @@
     </row>
     <row r="545" spans="1:8" ht="15" thickBot="1">
       <c r="A545" s="14" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -10099,7 +10090,7 @@
     </row>
     <row r="549" spans="1:8" ht="15" thickBot="1">
       <c r="A549" s="22" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -10111,7 +10102,7 @@
     </row>
     <row r="550" spans="1:8" ht="15" thickBot="1">
       <c r="A550" s="19" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -10133,7 +10124,7 @@
     </row>
     <row r="552" spans="1:8" ht="15" thickBot="1">
       <c r="A552" s="17" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -10145,7 +10136,7 @@
     </row>
     <row r="553" spans="1:8" ht="15" thickBot="1">
       <c r="A553" s="19" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -10167,7 +10158,7 @@
     </row>
     <row r="555" spans="1:8" ht="15" thickBot="1">
       <c r="A555" s="18" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -10179,7 +10170,7 @@
     </row>
     <row r="556" spans="1:8" ht="15" thickBot="1">
       <c r="A556" s="18" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -10201,7 +10192,7 @@
     </row>
     <row r="558" spans="1:8" ht="15" thickBot="1">
       <c r="A558" s="18" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -10213,7 +10204,7 @@
     </row>
     <row r="559" spans="1:8" ht="15" thickBot="1">
       <c r="A559" s="18" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -10235,7 +10226,7 @@
     </row>
     <row r="561" spans="1:8" ht="15" thickBot="1">
       <c r="A561" s="18" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -10247,7 +10238,7 @@
     </row>
     <row r="562" spans="1:8" ht="15" thickBot="1">
       <c r="A562" s="18" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -10269,7 +10260,7 @@
     </row>
     <row r="564" spans="1:8" ht="15" thickBot="1">
       <c r="A564" s="18" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -10281,7 +10272,7 @@
     </row>
     <row r="565" spans="1:8" ht="15" thickBot="1">
       <c r="A565" s="18" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -10303,7 +10294,7 @@
     </row>
     <row r="567" spans="1:8" ht="15" thickBot="1">
       <c r="A567" s="18" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -10315,7 +10306,7 @@
     </row>
     <row r="568" spans="1:8" ht="15" thickBot="1">
       <c r="A568" s="18" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
